--- a/data/cleaned_data/daily_demographic_metrics.xlsx
+++ b/data/cleaned_data/daily_demographic_metrics.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2269"/>
+  <dimension ref="A1:J2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97530,7 +97530,7 @@
         <v>97</v>
       </c>
       <c r="E2207" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2207" t="inlineStr">
         <is>
@@ -97574,7 +97574,7 @@
         <v>870</v>
       </c>
       <c r="E2208" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2208" t="inlineStr">
         <is>
@@ -97618,7 +97618,7 @@
         <v>542</v>
       </c>
       <c r="E2209" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2209" t="inlineStr">
         <is>
@@ -97662,7 +97662,7 @@
         <v>132</v>
       </c>
       <c r="E2210" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2210" t="inlineStr">
         <is>
@@ -97706,7 +97706,7 @@
         <v>37</v>
       </c>
       <c r="E2211" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2211" t="inlineStr">
         <is>
@@ -97750,7 +97750,7 @@
         <v>8</v>
       </c>
       <c r="E2212" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2212" t="inlineStr">
         <is>
@@ -97794,7 +97794,7 @@
         <v>8</v>
       </c>
       <c r="E2213" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2213" t="inlineStr">
         <is>
@@ -97838,7 +97838,7 @@
         <v>42</v>
       </c>
       <c r="E2214" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2214" t="inlineStr">
         <is>
@@ -97882,7 +97882,7 @@
         <v>402</v>
       </c>
       <c r="E2215" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2215" t="inlineStr">
         <is>
@@ -97926,7 +97926,7 @@
         <v>272</v>
       </c>
       <c r="E2216" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2216" t="inlineStr">
         <is>
@@ -97970,7 +97970,7 @@
         <v>61</v>
       </c>
       <c r="E2217" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2217" t="inlineStr">
         <is>
@@ -98014,7 +98014,7 @@
         <v>10</v>
       </c>
       <c r="E2218" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2218" t="inlineStr">
         <is>
@@ -98058,7 +98058,7 @@
         <v>6</v>
       </c>
       <c r="E2219" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2219" t="inlineStr">
         <is>
@@ -98102,7 +98102,7 @@
         <v>5</v>
       </c>
       <c r="E2220" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2220" t="inlineStr">
         <is>
@@ -98146,7 +98146,7 @@
         <v>53</v>
       </c>
       <c r="E2221" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2221" t="inlineStr">
         <is>
@@ -98190,7 +98190,7 @@
         <v>511</v>
       </c>
       <c r="E2222" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2222" t="inlineStr">
         <is>
@@ -98234,7 +98234,7 @@
         <v>207</v>
       </c>
       <c r="E2223" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2223" t="inlineStr">
         <is>
@@ -98278,7 +98278,7 @@
         <v>48</v>
       </c>
       <c r="E2224" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2224" t="inlineStr">
         <is>
@@ -98322,7 +98322,7 @@
         <v>16</v>
       </c>
       <c r="E2225" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2225" t="inlineStr">
         <is>
@@ -98366,7 +98366,7 @@
         <v>5</v>
       </c>
       <c r="E2226" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2226" t="inlineStr">
         <is>
@@ -98410,7 +98410,7 @@
         <v>4</v>
       </c>
       <c r="E2227" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2227" t="inlineStr">
         <is>
@@ -98454,7 +98454,7 @@
         <v>1068</v>
       </c>
       <c r="E2228" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2228" t="inlineStr">
         <is>
@@ -98498,7 +98498,7 @@
         <v>13853</v>
       </c>
       <c r="E2229" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2229" t="inlineStr">
         <is>
@@ -98542,7 +98542,7 @@
         <v>9483</v>
       </c>
       <c r="E2230" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2230" t="inlineStr">
         <is>
@@ -98586,7 +98586,7 @@
         <v>2409</v>
       </c>
       <c r="E2231" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2231" t="inlineStr">
         <is>
@@ -98630,7 +98630,7 @@
         <v>700</v>
       </c>
       <c r="E2232" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2232" t="inlineStr">
         <is>
@@ -98674,7 +98674,7 @@
         <v>204</v>
       </c>
       <c r="E2233" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2233" t="inlineStr">
         <is>
@@ -98718,7 +98718,7 @@
         <v>189</v>
       </c>
       <c r="E2234" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2234" t="inlineStr">
         <is>
@@ -98762,7 +98762,7 @@
         <v>461</v>
       </c>
       <c r="E2235" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2235" t="inlineStr">
         <is>
@@ -98806,7 +98806,7 @@
         <v>4374</v>
       </c>
       <c r="E2236" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2236" t="inlineStr">
         <is>
@@ -98850,7 +98850,7 @@
         <v>2908</v>
       </c>
       <c r="E2237" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2237" t="inlineStr">
         <is>
@@ -98894,7 +98894,7 @@
         <v>614</v>
       </c>
       <c r="E2238" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2238" t="inlineStr">
         <is>
@@ -98938,7 +98938,7 @@
         <v>144</v>
       </c>
       <c r="E2239" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2239" t="inlineStr">
         <is>
@@ -98982,7 +98982,7 @@
         <v>65</v>
       </c>
       <c r="E2240" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2240" t="inlineStr">
         <is>
@@ -99026,7 +99026,7 @@
         <v>63</v>
       </c>
       <c r="E2241" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2241" t="inlineStr">
         <is>
@@ -99070,7 +99070,7 @@
         <v>837</v>
       </c>
       <c r="E2242" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2242" t="inlineStr">
         <is>
@@ -99114,7 +99114,7 @@
         <v>8529</v>
       </c>
       <c r="E2243" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2243" t="inlineStr">
         <is>
@@ -99158,7 +99158,7 @@
         <v>4022</v>
       </c>
       <c r="E2244" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2244" t="inlineStr">
         <is>
@@ -99202,7 +99202,7 @@
         <v>877</v>
       </c>
       <c r="E2245" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2245" t="inlineStr">
         <is>
@@ -99246,7 +99246,7 @@
         <v>312</v>
       </c>
       <c r="E2246" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2246" t="inlineStr">
         <is>
@@ -99290,7 +99290,7 @@
         <v>114</v>
       </c>
       <c r="E2247" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2247" t="inlineStr">
         <is>
@@ -99334,7 +99334,7 @@
         <v>105</v>
       </c>
       <c r="E2248" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2248" t="inlineStr">
         <is>
@@ -99378,7 +99378,7 @@
         <v>22</v>
       </c>
       <c r="E2249" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2249" t="inlineStr">
         <is>
@@ -99422,7 +99422,7 @@
         <v>381</v>
       </c>
       <c r="E2250" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2250" t="inlineStr">
         <is>
@@ -99466,7 +99466,7 @@
         <v>483</v>
       </c>
       <c r="E2251" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2251" t="inlineStr">
         <is>
@@ -99510,7 +99510,7 @@
         <v>180</v>
       </c>
       <c r="E2252" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2252" t="inlineStr">
         <is>
@@ -99554,7 +99554,7 @@
         <v>71</v>
       </c>
       <c r="E2253" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2253" t="inlineStr">
         <is>
@@ -99598,7 +99598,7 @@
         <v>17</v>
       </c>
       <c r="E2254" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2254" t="inlineStr">
         <is>
@@ -99642,7 +99642,7 @@
         <v>17</v>
       </c>
       <c r="E2255" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2255" t="inlineStr">
         <is>
@@ -99686,7 +99686,7 @@
         <v>39</v>
       </c>
       <c r="E2256" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2256" t="inlineStr">
         <is>
@@ -99730,7 +99730,7 @@
         <v>342</v>
       </c>
       <c r="E2257" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2257" t="inlineStr">
         <is>
@@ -99774,7 +99774,7 @@
         <v>428</v>
       </c>
       <c r="E2258" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2258" t="inlineStr">
         <is>
@@ -99818,7 +99818,7 @@
         <v>152</v>
       </c>
       <c r="E2259" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2259" t="inlineStr">
         <is>
@@ -99862,7 +99862,7 @@
         <v>60</v>
       </c>
       <c r="E2260" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2260" t="inlineStr">
         <is>
@@ -99906,7 +99906,7 @@
         <v>18</v>
       </c>
       <c r="E2261" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2261" t="inlineStr">
         <is>
@@ -99950,7 +99950,7 @@
         <v>17</v>
       </c>
       <c r="E2262" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2262" t="inlineStr">
         <is>
@@ -99994,7 +99994,7 @@
         <v>34</v>
       </c>
       <c r="E2263" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2263" t="inlineStr">
         <is>
@@ -100038,7 +100038,7 @@
         <v>325</v>
       </c>
       <c r="E2264" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2264" t="inlineStr">
         <is>
@@ -100082,7 +100082,7 @@
         <v>258</v>
       </c>
       <c r="E2265" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2265" t="inlineStr">
         <is>
@@ -100126,7 +100126,7 @@
         <v>82</v>
       </c>
       <c r="E2266" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2266" t="inlineStr">
         <is>
@@ -100170,7 +100170,7 @@
         <v>34</v>
       </c>
       <c r="E2267" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2267" t="inlineStr">
         <is>
@@ -100214,7 +100214,7 @@
         <v>9</v>
       </c>
       <c r="E2268" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2268" t="inlineStr">
         <is>
@@ -100258,7 +100258,7 @@
         <v>7</v>
       </c>
       <c r="E2269" s="3" t="n">
-        <v>45789.42137730396</v>
+        <v>45789.42137730324</v>
       </c>
       <c r="F2269" t="inlineStr">
         <is>
@@ -100279,6 +100279,2778 @@
       <c r="J2269" t="inlineStr">
         <is>
           <t>10:06:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2270" t="n">
+        <v>97</v>
+      </c>
+      <c r="E2270" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2270" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2270" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2270" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2270" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2270" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2271" t="n">
+        <v>870</v>
+      </c>
+      <c r="E2271" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2271" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2271" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2271" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2271" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2271" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2272" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2272" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2272" t="n">
+        <v>542</v>
+      </c>
+      <c r="E2272" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2272" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2272" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2272" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2272" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2272" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2273" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2273" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2273" t="n">
+        <v>132</v>
+      </c>
+      <c r="E2273" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2273" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2273" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2273" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2273" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2273" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2274" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2274" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2274" t="n">
+        <v>37</v>
+      </c>
+      <c r="E2274" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2274" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2274" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2274" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2274" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2274" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2275" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2275" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2275" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2275" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2275" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2275" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2275" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2275" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2275" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2276" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2276" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2276" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2276" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2276" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2276" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2276" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2276" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2276" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2277" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2277" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2277" t="n">
+        <v>42</v>
+      </c>
+      <c r="E2277" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2277" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2277" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2277" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2277" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2277" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2278" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2278" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2278" t="n">
+        <v>402</v>
+      </c>
+      <c r="E2278" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2278" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2278" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2278" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2278" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2278" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2279" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2279" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2279" t="n">
+        <v>272</v>
+      </c>
+      <c r="E2279" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2279" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2279" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2279" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2279" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2279" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2280" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2280" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2280" t="n">
+        <v>61</v>
+      </c>
+      <c r="E2280" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2280" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2280" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2280" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2280" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2280" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2281" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2281" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2281" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2281" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2281" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2281" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2281" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2281" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2281" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2282" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2282" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2282" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2282" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2282" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2282" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2282" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2283" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2283" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2283" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2283" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2283" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2283" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2283" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2284" t="n">
+        <v>53</v>
+      </c>
+      <c r="E2284" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2284" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2284" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2284" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2284" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2284" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2285" t="n">
+        <v>511</v>
+      </c>
+      <c r="E2285" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2285" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2285" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2285" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2285" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2285" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2286" t="n">
+        <v>207</v>
+      </c>
+      <c r="E2286" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2286" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2286" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2286" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2286" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2286" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2287" t="n">
+        <v>48</v>
+      </c>
+      <c r="E2287" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2287" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2287" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2287" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2287" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2287" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2288" t="n">
+        <v>16</v>
+      </c>
+      <c r="E2288" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2288" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2288" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2288" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2288" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2288" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2289" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2289" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2289" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2289" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2289" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2289" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2289" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>engaged_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2290" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2290" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2290" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2290" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2290" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2290" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2290" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2291" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E2291" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2291" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2291" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2291" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2291" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2291" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2292" t="n">
+        <v>13853</v>
+      </c>
+      <c r="E2292" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2292" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2292" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2292" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2292" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2292" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2293" t="n">
+        <v>9483</v>
+      </c>
+      <c r="E2293" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2293" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2293" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2293" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2293" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2293" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2294" t="n">
+        <v>2409</v>
+      </c>
+      <c r="E2294" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2294" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2294" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2294" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2294" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2294" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2295" t="n">
+        <v>700</v>
+      </c>
+      <c r="E2295" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2295" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2295" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2295" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2295" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2295" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2296" t="n">
+        <v>204</v>
+      </c>
+      <c r="E2296" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2296" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2296" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2296" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2296" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2296" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2297" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2297" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2297" t="n">
+        <v>189</v>
+      </c>
+      <c r="E2297" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2297" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2297" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2297" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2297" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2297" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2298" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2298" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2298" t="n">
+        <v>461</v>
+      </c>
+      <c r="E2298" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2298" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2298" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2298" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2298" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2298" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2299" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2299" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2299" t="n">
+        <v>4374</v>
+      </c>
+      <c r="E2299" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2299" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2299" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2299" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2299" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2299" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2300" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2300" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2300" t="n">
+        <v>2908</v>
+      </c>
+      <c r="E2300" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2300" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2300" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2300" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2300" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2300" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2301" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2301" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2301" t="n">
+        <v>614</v>
+      </c>
+      <c r="E2301" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2301" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2301" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2301" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2301" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2301" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2302" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2302" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2302" t="n">
+        <v>144</v>
+      </c>
+      <c r="E2302" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2302" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2302" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2302" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2302" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2302" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2303" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2303" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2303" t="n">
+        <v>65</v>
+      </c>
+      <c r="E2303" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2303" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2303" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2303" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2303" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2303" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2304" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2304" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2304" t="n">
+        <v>63</v>
+      </c>
+      <c r="E2304" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2304" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2304" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2304" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2304" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2304" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2305" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2305" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2305" t="n">
+        <v>837</v>
+      </c>
+      <c r="E2305" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2305" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2305" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2305" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2305" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2305" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2306" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2306" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2306" t="n">
+        <v>8529</v>
+      </c>
+      <c r="E2306" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2306" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2306" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2306" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2306" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2306" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2307" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2307" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2307" t="n">
+        <v>4022</v>
+      </c>
+      <c r="E2307" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2307" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2307" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2307" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2307" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2307" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2308" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2308" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2308" t="n">
+        <v>877</v>
+      </c>
+      <c r="E2308" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2308" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2308" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2308" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2308" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2308" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2309" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2309" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2309" t="n">
+        <v>312</v>
+      </c>
+      <c r="E2309" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2309" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2309" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2309" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2309" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2309" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2310" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2310" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2310" t="n">
+        <v>114</v>
+      </c>
+      <c r="E2310" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2310" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2310" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2310" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2310" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2310" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>reached_audience_demographics</t>
+        </is>
+      </c>
+      <c r="B2311" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2311" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2311" t="n">
+        <v>105</v>
+      </c>
+      <c r="E2311" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2311" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2311" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2311" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2311" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2311" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2312" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2312" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2312" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2312" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2312" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2312" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2312" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2312" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2312" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2313" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2313" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2313" t="n">
+        <v>381</v>
+      </c>
+      <c r="E2313" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2313" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2313" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2313" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2313" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2313" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2314" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2314" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2314" t="n">
+        <v>485</v>
+      </c>
+      <c r="E2314" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2314" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2314" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2314" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2314" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2314" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2315" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2315" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2315" t="n">
+        <v>181</v>
+      </c>
+      <c r="E2315" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2315" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2315" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2315" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2315" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2315" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2316" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2316" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2316" t="n">
+        <v>71</v>
+      </c>
+      <c r="E2316" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2316" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2316" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2316" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2316" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2316" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2317" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2317" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2317" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2317" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2317" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2317" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2317" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2317" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2317" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2318" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2318" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D2318" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2318" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2318" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2318" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2318" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2318" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2318" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2319" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2319" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2319" t="n">
+        <v>39</v>
+      </c>
+      <c r="E2319" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2319" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2319" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2319" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2319" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2319" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2320" t="n">
+        <v>340</v>
+      </c>
+      <c r="E2320" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2320" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2320" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2320" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2320" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2320" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2321" t="n">
+        <v>428</v>
+      </c>
+      <c r="E2321" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2321" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2321" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2321" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2321" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2321" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2322" t="n">
+        <v>152</v>
+      </c>
+      <c r="E2322" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2322" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2322" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2322" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2322" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2322" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2323" t="n">
+        <v>60</v>
+      </c>
+      <c r="E2323" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2323" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2323" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2323" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2323" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2323" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2324" t="n">
+        <v>18</v>
+      </c>
+      <c r="E2324" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2324" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2324" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2324" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2324" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2324" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D2325" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2325" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2325" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2325" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2325" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2325" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2325" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>13-17</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2326" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2326" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2326" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2326" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2326" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2326" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2326" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>18-24</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2327" t="n">
+        <v>323</v>
+      </c>
+      <c r="E2327" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2327" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2327" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2327" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2327" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2327" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2328" t="n">
+        <v>262</v>
+      </c>
+      <c r="E2328" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2328" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2328" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2328" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2328" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2328" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2329" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2329" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2329" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2329" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2329" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2329" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2329" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2330" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2330" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2330" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2330" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2330" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2330" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2330" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2331" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2331" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2331" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2331" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2331" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2331" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2331" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>follower_demographics</t>
+        </is>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>65+</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="D2332" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2332" s="3" t="n">
+        <v>45790.59408751722</v>
+      </c>
+      <c r="F2332" t="inlineStr">
+        <is>
+          <t>2025-05-13</t>
+        </is>
+      </c>
+      <c r="G2332" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H2332" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="I2332" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2332" t="inlineStr">
+        <is>
+          <t>14:15:29</t>
         </is>
       </c>
     </row>
